--- a/biology/Botanique/Solidago/Solidago.xlsx
+++ b/biology/Botanique/Solidago/Solidago.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Solidago est un genre de plantes à fleurs de la famille des Asteraceae communément appelées solidages, verges d'or, gerbes d'or ou « Amandines ».
 Il existe près de 125 espèces de ce genre qui poussent en Amérique du Nord aussi bien qu'en Europe où elles ont été introduites depuis environ 250 ans (localement, elles peuvent y devenir envahissantes).
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Linné, père de la terminologie binomiale latine, donne à la verge d'or le nom scientifique de Solidago, du latin solidare, « consolider, cicatriser », en raison de sa réputation à favoriser la guérison des plaies, la plante étant utilisée autrefois comme vulnéraire[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Linné, père de la terminologie binomiale latine, donne à la verge d'or le nom scientifique de Solidago, du latin solidare, « consolider, cicatriser », en raison de sa réputation à favoriser la guérison des plaies, la plante étant utilisée autrefois comme vulnéraire.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines de ces espèces (telles que Solidago virgaurea (en homéopathie : Solidago virga aurea), Solidago canadensis et Solidago gigantea) sont réputées avoir des vertus médicinales. Considérée dans la tradition européenne comme stimulante, sudorifique, tonique, carminative, apéritive et pectorale, on a utilisé la verge d'or pour les rhumes, les affections pulmonaires, les nausées et les douleurs causées par les « vents ».
 Toutefois, c'est dans les affections rénales (infections telles que colibacillose, cystite ou néphrite, calculs rénaux, albuminurie, oligurie) qu'on l'a surtout employée. Il s'agirait d'ailleurs d'une des meilleures plantes pour fortifier le système rénal. Elle a également servi à soigner la diarrhée, les entérocolites et les entérites, notamment celles dont souffrent les tout-petits lorsqu'ils percent leurs dents. On la leur administrait sous forme de sirop.
@@ -578,7 +594,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Solidago albopilosa E.L. Braun : Whitehair Goldenrod
 Solidago altiplanities C.&amp; J. Taylor : High Plains Goldenrod
@@ -750,7 +768,9 @@
           <t>Hybrides naturels</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Solidago ×asperula Desf. (S. rugosa × S. sempervirens)
 Solidago ×beaudryi Boivin (S. rugosa × S. uliginosa)
